--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N2">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O2">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P2">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q2">
-        <v>1.483959705633334</v>
+        <v>0.6516321442773335</v>
       </c>
       <c r="R2">
-        <v>13.3556373507</v>
+        <v>5.864689298496001</v>
       </c>
       <c r="S2">
-        <v>0.0007825592619415293</v>
+        <v>0.0005425232953495378</v>
       </c>
       <c r="T2">
-        <v>0.0009889349384684081</v>
+        <v>0.0006095375925004677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P3">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q3">
-        <v>12.65854020924</v>
+        <v>8.541375346392002</v>
       </c>
       <c r="R3">
-        <v>113.92686188316</v>
+        <v>76.87237811752802</v>
       </c>
       <c r="S3">
-        <v>0.006675422415982826</v>
+        <v>0.007111213190504782</v>
       </c>
       <c r="T3">
-        <v>0.008435857547480994</v>
+        <v>0.007989614095935148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N4">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O4">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P4">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q4">
-        <v>15.21247174041</v>
+        <v>8.312090482901333</v>
       </c>
       <c r="R4">
-        <v>136.91224566369</v>
+        <v>74.808814346112</v>
       </c>
       <c r="S4">
-        <v>0.008022226353107667</v>
+        <v>0.006920319630684036</v>
       </c>
       <c r="T4">
-        <v>0.01013783915253557</v>
+        <v>0.007775140723318005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N5">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O5">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P5">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q5">
-        <v>31.79694033711001</v>
+        <v>9.080464724751002</v>
       </c>
       <c r="R5">
-        <v>190.78164202266</v>
+        <v>54.48278834850601</v>
       </c>
       <c r="S5">
-        <v>0.01676796887930858</v>
+        <v>0.007560037805133958</v>
       </c>
       <c r="T5">
-        <v>0.01412666625038995</v>
+        <v>0.005662586021594938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H6">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I6">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J6">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N6">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O6">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P6">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q6">
-        <v>15.35534877246667</v>
+        <v>12.75870460879</v>
       </c>
       <c r="R6">
-        <v>138.1981389522</v>
+        <v>114.82834147911</v>
       </c>
       <c r="S6">
-        <v>0.008097571892700293</v>
+        <v>0.01062239567145439</v>
       </c>
       <c r="T6">
-        <v>0.01023305473579509</v>
+        <v>0.01193450961399571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N7">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O7">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P7">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q7">
-        <v>25.13251604928889</v>
+        <v>16.35581455175111</v>
       </c>
       <c r="R7">
-        <v>226.1926444436</v>
+        <v>147.20233096576</v>
       </c>
       <c r="S7">
-        <v>0.01325351566865575</v>
+        <v>0.01361720793958475</v>
       </c>
       <c r="T7">
-        <v>0.01674871839067373</v>
+        <v>0.01529925113856184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P8">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q8">
         <v>214.38652529552</v>
@@ -948,10 +948,10 @@
         <v>1929.47872765968</v>
       </c>
       <c r="S8">
-        <v>0.1130557388914204</v>
+        <v>0.1784897893747264</v>
       </c>
       <c r="T8">
-        <v>0.1428706752594041</v>
+        <v>0.2005374468414133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N9">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O9">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P9">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q9">
-        <v>257.6402099826801</v>
+        <v>208.6315287998578</v>
       </c>
       <c r="R9">
-        <v>2318.76188984412</v>
+        <v>1877.68375919872</v>
       </c>
       <c r="S9">
-        <v>0.1358653687193337</v>
+        <v>0.1736984056301226</v>
       </c>
       <c r="T9">
-        <v>0.1716956358309398</v>
+        <v>0.1951542153056135</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J10">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N10">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O10">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P10">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q10">
-        <v>538.5167200342801</v>
+        <v>227.91754272106</v>
       </c>
       <c r="R10">
-        <v>3231.10032020568</v>
+        <v>1367.50525632636</v>
       </c>
       <c r="S10">
-        <v>0.2839842924126721</v>
+        <v>0.1897551823231929</v>
       </c>
       <c r="T10">
-        <v>0.2392508805414953</v>
+        <v>0.1421295859418618</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>35.59684</v>
       </c>
       <c r="I11">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J11">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N11">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O11">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P11">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q11">
-        <v>260.0599921961778</v>
+        <v>320.2405043007333</v>
       </c>
       <c r="R11">
-        <v>2340.5399297656</v>
+        <v>2882.1645387066</v>
       </c>
       <c r="S11">
-        <v>0.1371414296365308</v>
+        <v>0.2666196491738583</v>
       </c>
       <c r="T11">
-        <v>0.1733082181438746</v>
+        <v>0.2995534025244901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N12">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O12">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P12">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q12">
-        <v>0.9683613185177777</v>
+        <v>0.5223114116266667</v>
       </c>
       <c r="R12">
-        <v>8.715251866659999</v>
+        <v>4.70080270464</v>
       </c>
       <c r="S12">
-        <v>0.0005106608460022705</v>
+        <v>0.0004348559393868207</v>
       </c>
       <c r="T12">
-        <v>0.0006453317683143255</v>
+        <v>0.0004885708035958125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P13">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q13">
-        <v>8.260359523912001</v>
+        <v>6.846282605280001</v>
       </c>
       <c r="R13">
-        <v>74.34323571520801</v>
+        <v>61.61654344752001</v>
       </c>
       <c r="S13">
-        <v>0.004356062248769362</v>
+        <v>0.005699945640388697</v>
       </c>
       <c r="T13">
-        <v>0.005504838242235455</v>
+        <v>0.00640402204441307</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H14">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I14">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J14">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N14">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O14">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P14">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q14">
-        <v>9.926933417758001</v>
+        <v>6.662500847786665</v>
       </c>
       <c r="R14">
-        <v>89.342400759822</v>
+        <v>59.96250763008</v>
       </c>
       <c r="S14">
-        <v>0.005234922255134921</v>
+        <v>0.005546936177034201</v>
       </c>
       <c r="T14">
-        <v>0.006615470252597387</v>
+        <v>0.00623211233892697</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H15">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I15">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J15">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N15">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O15">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P15">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q15">
-        <v>20.749166539218</v>
+        <v>7.27838611134</v>
       </c>
       <c r="R15">
-        <v>124.494999235308</v>
+        <v>43.67031666804</v>
       </c>
       <c r="S15">
-        <v>0.01094197665286498</v>
+        <v>0.006059698025378453</v>
       </c>
       <c r="T15">
-        <v>0.009218388548259059</v>
+        <v>0.004538808167108957</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H16">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I16">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J16">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N16">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O16">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P16">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q16">
-        <v>10.02016815359555</v>
+        <v>10.2266548286</v>
       </c>
       <c r="R16">
-        <v>90.18151338236</v>
+        <v>92.0398934574</v>
       </c>
       <c r="S16">
-        <v>0.005284089160265415</v>
+        <v>0.008514310607202077</v>
       </c>
       <c r="T16">
-        <v>0.006677603400417111</v>
+        <v>0.00956602681175462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N17">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O17">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P17">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q17">
-        <v>8.985263652581667</v>
+        <v>2.134288320416001</v>
       </c>
       <c r="R17">
-        <v>53.91158191549</v>
+        <v>12.805729922496</v>
       </c>
       <c r="S17">
-        <v>0.004738337075879975</v>
+        <v>0.001776924516365353</v>
       </c>
       <c r="T17">
-        <v>0.003991950780359821</v>
+        <v>0.001330944128476022</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H18">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I18">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J18">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P18">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q18">
-        <v>76.646502465702</v>
+        <v>27.97553466658801</v>
       </c>
       <c r="R18">
-        <v>459.879014794212</v>
+        <v>167.8532079995281</v>
       </c>
       <c r="S18">
-        <v>0.04041917726759337</v>
+        <v>0.02329132991638162</v>
       </c>
       <c r="T18">
-        <v>0.03405231912609469</v>
+        <v>0.01744556874031685</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H19">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I19">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J19">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N19">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O19">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P19">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q19">
-        <v>92.1103645039305</v>
+        <v>27.224558812352</v>
       </c>
       <c r="R19">
-        <v>552.662187023583</v>
+        <v>163.347352874112</v>
       </c>
       <c r="S19">
-        <v>0.04857397312725387</v>
+        <v>0.02266609695519937</v>
       </c>
       <c r="T19">
-        <v>0.0409225656227733</v>
+        <v>0.01697725951786472</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H20">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I20">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J20">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N20">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O20">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P20">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q20">
-        <v>192.5280660854655</v>
+        <v>29.74121208750151</v>
       </c>
       <c r="R20">
-        <v>770.112264341862</v>
+        <v>118.964848350006</v>
       </c>
       <c r="S20">
-        <v>0.1015287818981381</v>
+        <v>0.02476136349488258</v>
       </c>
       <c r="T20">
-        <v>0.05702392965250505</v>
+        <v>0.01236443118547508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H21">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I21">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J21">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N21">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O21">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P21">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q21">
-        <v>92.97547411442332</v>
+        <v>41.78853739693501</v>
       </c>
       <c r="R21">
-        <v>557.8528446865399</v>
+        <v>250.73122438161</v>
       </c>
       <c r="S21">
-        <v>0.04903018466434331</v>
+        <v>0.03479149273945843</v>
       </c>
       <c r="T21">
-        <v>0.04130691438739874</v>
+        <v>0.02605936974588823</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H22">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I22">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J22">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N22">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O22">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P22">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q22">
-        <v>0.2109666641933334</v>
+        <v>0.22917633088</v>
       </c>
       <c r="R22">
-        <v>1.89869997774</v>
+        <v>2.06258697792</v>
       </c>
       <c r="S22">
-        <v>0.0001112522910148302</v>
+        <v>0.0001908031998375721</v>
       </c>
       <c r="T22">
-        <v>0.0001405916240723518</v>
+        <v>0.0002143718510657653</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H23">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I23">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J23">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P23">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q23">
-        <v>1.799597382168</v>
+        <v>3.00396639384</v>
       </c>
       <c r="R23">
-        <v>16.196376439512</v>
+        <v>27.03569754456</v>
       </c>
       <c r="S23">
-        <v>0.0009490093254117432</v>
+        <v>0.002500984276815752</v>
       </c>
       <c r="T23">
-        <v>0.001199281031450025</v>
+        <v>0.002809914243386776</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H24">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I24">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J24">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N24">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O24">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P24">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q24">
-        <v>2.162676253962001</v>
+        <v>2.923327855359999</v>
       </c>
       <c r="R24">
-        <v>19.464086285658</v>
+        <v>26.30995069824</v>
       </c>
       <c r="S24">
-        <v>0.001140477282970882</v>
+        <v>0.00243384780110236</v>
       </c>
       <c r="T24">
-        <v>0.001441242710310797</v>
+        <v>0.002734484845006857</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H25">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I25">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J25">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N25">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O25">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P25">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q25">
-        <v>4.520402008902001</v>
+        <v>3.19356189927</v>
       </c>
       <c r="R25">
-        <v>27.12241205341201</v>
+        <v>19.16137139562</v>
       </c>
       <c r="S25">
-        <v>0.002383813014825499</v>
+        <v>0.002658834038054</v>
       </c>
       <c r="T25">
-        <v>0.002008313058436705</v>
+        <v>0.001991508091057572</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H26">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I26">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J26">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N26">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O26">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P26">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q26">
-        <v>2.182988322226667</v>
+        <v>4.4871836583</v>
       </c>
       <c r="R26">
-        <v>19.64689490004</v>
+        <v>40.3846529247</v>
       </c>
       <c r="S26">
-        <v>0.001151188757877756</v>
+        <v>0.003735852637900922</v>
       </c>
       <c r="T26">
-        <v>0.001454779003717707</v>
+        <v>0.004197317686377925</v>
       </c>
     </row>
   </sheetData>
